--- a/vm/instructions.xlsx
+++ b/vm/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnneSo\Documents\AnneSo\Programmoi\Haskell\langage_de_prog\vm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A0140-57F8-4268-8194-7CC38A929B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBED57B-2445-45D8-9086-628CDD307283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{5DD3CC9B-8CC5-4EAD-97FF-4D8723FB06ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nom instr</t>
   </si>
@@ -60,6 +60,39 @@
   </si>
   <si>
     <t>dest registre</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>spéc</t>
+  </si>
+  <si>
+    <t>imm</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>rev -</t>
+  </si>
+  <si>
+    <t>rev /</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>rev %</t>
   </si>
 </sst>
 </file>
@@ -75,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +118,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,12 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,16 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451AAFAD-B30D-4FE3-ABEA-E95E47D392ED}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.76953125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="8" width="2.6796875" customWidth="1"/>
+    <col min="2" max="6" width="2.6796875" customWidth="1"/>
+    <col min="7" max="7" width="3.36328125" customWidth="1"/>
+    <col min="8" max="8" width="4.1796875" customWidth="1"/>
     <col min="9" max="17" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,52 +488,52 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>31</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>30</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="2">
         <v>29</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <v>28</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="2">
         <v>27</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="2">
         <v>26</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>25</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>24</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>23</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>22</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>21</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>20</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>19</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>18</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>17</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
       <c r="R1">
@@ -536,44 +586,52 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.75">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
@@ -588,32 +646,32 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
@@ -628,24 +686,153 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="R2:AG2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vm/instructions.xlsx
+++ b/vm/instructions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnneSo\Documents\AnneSo\Programmoi\Haskell\langage_de_prog\vm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBED57B-2445-45D8-9086-628CDD307283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C695E-8C27-44A3-985E-432CAFCC1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{5DD3CC9B-8CC5-4EAD-97FF-4D8723FB06ED}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -155,6 +161,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +479,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.76953125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -656,22 +663,25 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
@@ -693,9 +703,25 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
@@ -712,6 +738,25 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
